--- a/KatalonProjects/envtData1.xlsx
+++ b/KatalonProjects/envtData1.xlsx
@@ -53,25 +53,25 @@
     <t>RSTestEnvt</t>
   </si>
   <si>
+    <t>https://mirandakate.cabitest5.com</t>
+  </si>
+  <si>
+    <t>cabitest5</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest21</t>
+  </si>
+  <si>
     <t>test21</t>
-  </si>
-  <si>
-    <t>virtual_cabitest19</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabisandbox.com</t>
-  </si>
-  <si>
-    <t>cabisandbox</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/warehouse/control/main</t>
   </si>
 </sst>
 </file>
@@ -469,28 +469,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/envtData1.xlsx
+++ b/KatalonProjects/envtData1.xlsx
@@ -53,25 +53,25 @@
     <t>RSTestEnvt</t>
   </si>
   <si>
-    <t>https://mirandakate.cabitest5.com</t>
-  </si>
-  <si>
-    <t>cabitest5</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest21</t>
-  </si>
-  <si>
     <t>test21</t>
+  </si>
+  <si>
+    <t>virtual_cabitest19</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabisandbox.com</t>
+  </si>
+  <si>
+    <t>cabisandbox</t>
+  </si>
+  <si>
+    <t>https://sandbox.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://sandbox.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://sandbox.cliotest.com/warehouse/control/main</t>
   </si>
 </sst>
 </file>
@@ -469,28 +469,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
